--- a/published-data/fonds-solidarite/fds-2022-06-15/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-15/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -12385,13 +12385,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D235" t="n">
         <v>5</v>
       </c>
       <c r="E235" t="n">
-        <v>2978806</v>
+        <v>3178806</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -18097,13 +18097,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>14361</v>
+        <v>14362</v>
       </c>
       <c r="D347" t="n">
         <v>2812</v>
       </c>
       <c r="E347" t="n">
-        <v>36190509</v>
+        <v>36193311</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -18148,13 +18148,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>5212</v>
+        <v>5213</v>
       </c>
       <c r="D348" t="n">
         <v>1053</v>
       </c>
       <c r="E348" t="n">
-        <v>20422343</v>
+        <v>20442161</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -18199,13 +18199,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D349" t="n">
         <v>408</v>
       </c>
       <c r="E349" t="n">
-        <v>13636172</v>
+        <v>13657300</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -18454,13 +18454,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>15731</v>
+        <v>15734</v>
       </c>
       <c r="D354" t="n">
         <v>2768</v>
       </c>
       <c r="E354" t="n">
-        <v>24673307</v>
+        <v>24684987</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -19525,13 +19525,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D375" t="n">
         <v>273</v>
       </c>
       <c r="E375" t="n">
-        <v>48368408</v>
+        <v>48410221</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -21820,13 +21820,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>45879</v>
+        <v>45882</v>
       </c>
       <c r="D420" t="n">
         <v>7717</v>
       </c>
       <c r="E420" t="n">
-        <v>185180760</v>
+        <v>185496772</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -22024,13 +22024,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="D424" t="n">
         <v>280</v>
       </c>
       <c r="E424" t="n">
-        <v>78641442</v>
+        <v>78671402</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>61096</v>
+        <v>61100</v>
       </c>
       <c r="D433" t="n">
         <v>9650</v>
       </c>
       <c r="E433" t="n">
-        <v>221115234</v>
+        <v>221139422</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163647</v>
+        <v>163655</v>
       </c>
       <c r="D434" t="n">
         <v>25458</v>
       </c>
       <c r="E434" t="n">
-        <v>711786697</v>
+        <v>712039304</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94644</v>
+        <v>94648</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>653491408</v>
+        <v>653554053</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30978</v>
+        <v>30981</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>596475752</v>
+        <v>596627755</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10270</v>
+        <v>10274</v>
       </c>
       <c r="D438" t="n">
         <v>1383</v>
       </c>
       <c r="E438" t="n">
-        <v>483404727</v>
+        <v>484041917</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -23707,13 +23707,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>48914</v>
+        <v>48919</v>
       </c>
       <c r="D457" t="n">
         <v>8597</v>
       </c>
       <c r="E457" t="n">
-        <v>164718380</v>
+        <v>164782022</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -23860,13 +23860,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3570</v>
+        <v>3574</v>
       </c>
       <c r="D460" t="n">
         <v>601</v>
       </c>
       <c r="E460" t="n">
-        <v>53261043</v>
+        <v>53318008</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -25339,13 +25339,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>27867</v>
+        <v>27868</v>
       </c>
       <c r="D489" t="n">
         <v>5750</v>
       </c>
       <c r="E489" t="n">
-        <v>106603196</v>
+        <v>106603701</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -31663,13 +31663,13 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>20918</v>
+        <v>20919</v>
       </c>
       <c r="D613" t="n">
         <v>4074</v>
       </c>
       <c r="E613" t="n">
-        <v>125611739</v>
+        <v>125612834</v>
       </c>
       <c r="F613" t="inlineStr">
         <is>
@@ -31816,13 +31816,13 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D616" t="n">
         <v>251</v>
       </c>
       <c r="E616" t="n">
-        <v>55171620</v>
+        <v>55202699</v>
       </c>
       <c r="F616" t="inlineStr">
         <is>
@@ -40843,13 +40843,13 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="D793" t="n">
         <v>671</v>
       </c>
       <c r="E793" t="n">
-        <v>5202198</v>
+        <v>5209181</v>
       </c>
       <c r="F793" t="inlineStr">
         <is>
@@ -42883,13 +42883,13 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>20971</v>
+        <v>20972</v>
       </c>
       <c r="D833" t="n">
         <v>4374</v>
       </c>
       <c r="E833" t="n">
-        <v>37876953</v>
+        <v>37882631</v>
       </c>
       <c r="F833" t="inlineStr">
         <is>
